--- a/sample-imports/students/data.xlsx
+++ b/sample-imports/students/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saahi\OneDrive\Desktop\overseas-travel-database-management-system\database\test-import-data\students\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\overseas-travel-database\sample-imports\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBE0C53-52A3-4216-BC9A-C6DFDF21A326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1E88CF-20D3-458C-9274-F101F8175D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{06BB8B05-F846-4CCD-AA37-3D2CA17146F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{06BB8B05-F846-4CCD-AA37-3D2CA17146F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,18 +46,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
-    <t>adminNo</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>citizenshipStatus</t>
-  </si>
-  <si>
-    <t>pemGroup</t>
-  </si>
-  <si>
     <t>212345A</t>
   </si>
   <si>
@@ -76,12 +64,6 @@
     <t>XLSX Tres</t>
   </si>
   <si>
-    <t>studyStage</t>
-  </si>
-  <si>
-    <t>courseCode</t>
-  </si>
-  <si>
     <t>Singapore Citizen</t>
   </si>
   <si>
@@ -89,6 +71,24 @@
   </si>
   <si>
     <t>IM2000</t>
+  </si>
+  <si>
+    <t>Admin Number</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Citizenship Status</t>
+  </si>
+  <si>
+    <t>Study Stage</t>
+  </si>
+  <si>
+    <t>Course Code</t>
+  </si>
+  <si>
+    <t>PEM Group</t>
   </si>
 </sst>
 </file>
@@ -476,93 +476,93 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
